--- a/Team-Data/2011-12/2-11-2011-12.xlsx
+++ b/Team-Data/2011-12/2-11-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>4.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF2" t="n">
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -768,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>18</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -789,22 +856,22 @@
         <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>16</v>
@@ -959,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -995,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.414</v>
+        <v>0.417</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M4" t="n">
         <v>13.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.292</v>
+        <v>0.301</v>
       </c>
       <c r="O4" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="P4" t="n">
-        <v>20.6</v>
+        <v>19.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>40.1</v>
+        <v>40.5</v>
       </c>
       <c r="U4" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X4" t="n">
         <v>5.6</v>
@@ -1099,34 +1166,34 @@
         <v>19.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="AB4" t="n">
         <v>86.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.6</v>
+        <v>-14.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1138,22 +1205,22 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1162,22 +1229,22 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1335,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1353,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -1394,118 +1461,118 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.385</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="O6" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P6" t="n">
         <v>24.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.696</v>
+        <v>0.694</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V6" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>13</v>
       </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1517,19 +1584,19 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1538,16 +1605,16 @@
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC6" t="n">
         <v>22</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>23</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607</v>
+        <v>0.593</v>
       </c>
       <c r="H7" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
         <v>0.326</v>
       </c>
       <c r="O7" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R7" t="n">
         <v>10.2</v>
       </c>
       <c r="S7" t="n">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X7" t="n">
         <v>5.6</v>
@@ -1642,22 +1709,22 @@
         <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,13 +1733,13 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
@@ -1687,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
@@ -1696,25 +1763,25 @@
         <v>19</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW7" t="n">
         <v>3</v>
       </c>
-      <c r="AT7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1723,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.571</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J8" t="n">
-        <v>79.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.476</v>
@@ -1785,37 +1852,37 @@
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O8" t="n">
         <v>21</v>
       </c>
       <c r="P8" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.741</v>
+        <v>0.745</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>4.9</v>
@@ -1824,22 +1891,22 @@
         <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9</v>
+        <v>103.6</v>
       </c>
       <c r="AC8" t="n">
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1860,13 +1927,13 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,34 +1942,34 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>18</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -2039,7 +2106,7 @@
         <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
@@ -2054,7 +2121,7 @@
         <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
         <v>6</v>
@@ -2066,13 +2133,13 @@
         <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -2209,13 +2276,13 @@
         <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2227,25 +2294,25 @@
         <v>3</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
         <v>24</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2254,10 +2321,10 @@
         <v>2</v>
       </c>
       <c r="AV10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>5</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>2.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2406,10 +2473,10 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="n">
         <v>11</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>15</v>
@@ -2424,31 +2491,31 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
       </c>
       <c r="AX11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY11" t="n">
         <v>14</v>
       </c>
-      <c r="AY11" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -2486,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.63</v>
+        <v>0.654</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="J12" t="n">
         <v>80.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.429</v>
+        <v>0.425</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
         <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>94.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2600,25 +2667,25 @@
         <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>3</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW12" t="n">
         <v>8</v>
@@ -2636,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -2668,88 +2735,88 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.68</v>
+        <v>0.667</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J13" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>7.7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
         <v>25</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.678</v>
+        <v>0.67</v>
       </c>
       <c r="R13" t="n">
         <v>11.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T13" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U13" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="V13" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="W13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE13" t="n">
         <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
@@ -2758,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
@@ -2767,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
         <v>4</v>
@@ -2776,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,16 +2858,16 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13" t="n">
         <v>12</v>
@@ -2809,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2818,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -2928,25 +2995,25 @@
         <v>1.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2961,7 +3028,7 @@
         <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
@@ -2982,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3003,7 +3070,7 @@
         <v>21</v>
       </c>
       <c r="BC14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3143,7 +3210,7 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3152,19 +3219,19 @@
         <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3173,7 +3240,7 @@
         <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>13</v>
@@ -3185,7 +3252,7 @@
         <v>21</v>
       </c>
       <c r="BC15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3340,7 +3407,7 @@
         <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
@@ -3355,10 +3422,10 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.444</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O17" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="P17" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
@@ -3462,91 +3529,91 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AA17" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA17" t="n">
-        <v>19.4</v>
-      </c>
       <c r="AB17" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL17" t="n">
         <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV17" t="n">
         <v>10</v>
       </c>
-      <c r="AV17" t="n">
-        <v>8</v>
-      </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.464</v>
+        <v>0.481</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,13 +3663,13 @@
         <v>34.6</v>
       </c>
       <c r="J18" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="n">
         <v>20</v>
@@ -3611,19 +3678,19 @@
         <v>0.327</v>
       </c>
       <c r="O18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P18" t="n">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T18" t="n">
         <v>44.5</v>
@@ -3632,37 +3699,37 @@
         <v>18.4</v>
       </c>
       <c r="V18" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X18" t="n">
         <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
         <v>22.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
@@ -3674,13 +3741,13 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM18" t="n">
         <v>10</v>
@@ -3695,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
@@ -3710,19 +3777,19 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
@@ -3731,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,46 +3845,46 @@
         <v>33.3</v>
       </c>
       <c r="J19" t="n">
-        <v>79.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.422</v>
       </c>
       <c r="L19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M19" t="n">
         <v>24.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O19" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="T19" t="n">
         <v>39</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
@@ -3826,37 +3893,37 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.7</v>
+        <v>-7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3868,19 +3935,19 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO19" t="n">
         <v>12</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3892,22 +3959,22 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
         <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,13 +4117,13 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>18</v>
@@ -4065,16 +4132,16 @@
         <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
@@ -4086,7 +4153,7 @@
         <v>22</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -4124,97 +4191,97 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.464</v>
+        <v>0.444</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.302</v>
+        <v>0.3</v>
       </c>
       <c r="O21" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P21" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.772</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V21" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X21" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
         <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>0.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
@@ -4223,10 +4290,10 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4235,28 +4302,28 @@
         <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP21" t="n">
         <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4411,7 +4478,7 @@
         <v>14</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4429,13 +4496,13 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,16 +4517,16 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.607</v>
+        <v>0.593</v>
       </c>
       <c r="H23" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I23" t="n">
         <v>33.3</v>
       </c>
       <c r="J23" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K23" t="n">
         <v>0.433</v>
       </c>
       <c r="L23" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
         <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.651</v>
+        <v>0.65</v>
       </c>
       <c r="R23" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
         <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.1</v>
@@ -4554,22 +4621,22 @@
         <v>4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
         <v>9</v>
@@ -4578,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4599,7 +4666,7 @@
         <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4611,31 +4678,31 @@
         <v>17</v>
       </c>
       <c r="AS23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT23" t="n">
         <v>8</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.679</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J24" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L24" t="n">
         <v>6.1</v>
@@ -4700,34 +4767,34 @@
         <v>15.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="O24" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="P24" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.717</v>
+        <v>0.715</v>
       </c>
       <c r="R24" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S24" t="n">
         <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
         <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X24" t="n">
         <v>4.6</v>
@@ -4739,16 +4806,16 @@
         <v>17.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4757,28 +4824,28 @@
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>5</v>
@@ -4805,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>22</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
         <v>4</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -4852,109 +4919,109 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.444</v>
+        <v>0.423</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N25" t="n">
         <v>0.351</v>
       </c>
       <c r="O25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R25" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
         <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U25" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.7</v>
+        <v>-3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
@@ -4972,7 +5039,7 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4981,22 +5048,22 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>25</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5005,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.536</v>
+        <v>0.556</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
         <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M26" t="n">
         <v>19.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.311</v>
+        <v>0.317</v>
       </c>
       <c r="O26" t="n">
         <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T26" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="V26" t="n">
         <v>14.4</v>
       </c>
       <c r="W26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X26" t="n">
         <v>5.4</v>
@@ -5100,31 +5167,31 @@
         <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
@@ -5133,10 +5200,10 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
         <v>14</v>
@@ -5160,16 +5227,16 @@
         <v>14</v>
       </c>
       <c r="AT26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5178,13 +5245,13 @@
         <v>12</v>
       </c>
       <c r="AZ26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.404</v>
+        <v>0.406</v>
       </c>
       <c r="L27" t="n">
         <v>6.1</v>
@@ -5246,25 +5313,25 @@
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="O27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P27" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R27" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
         <v>16.5</v>
@@ -5273,28 +5340,28 @@
         <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>92</v>
+        <v>92.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,40 +5373,40 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5354,16 +5421,16 @@
         <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.679</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.461</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R28" t="n">
         <v>10</v>
@@ -5446,10 +5513,10 @@
         <v>31.8</v>
       </c>
       <c r="T28" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V28" t="n">
         <v>13.6</v>
@@ -5467,16 +5534,16 @@
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5485,10 +5552,10 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH28" t="n">
         <v>5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
@@ -5497,43 +5564,43 @@
         <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN28" t="n">
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>8</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
@@ -5691,7 +5758,7 @@
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
@@ -5700,7 +5767,7 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5709,7 +5776,7 @@
         <v>18</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>19</v>
@@ -5718,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
@@ -5852,13 +5919,13 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI30" t="n">
         <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>11</v>
@@ -5870,16 +5937,16 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>13</v>
@@ -5888,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>15</v>
@@ -5897,7 +5964,7 @@
         <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-10.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,13 +6101,13 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
         <v>27</v>
@@ -6052,7 +6119,7 @@
         <v>25</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>21</v>
@@ -6064,22 +6131,22 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6091,7 +6158,7 @@
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-11-2011-12</t>
+          <t>2012-02-11</t>
         </is>
       </c>
     </row>
